--- a/data/trans_orig/P62A$invalidez-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P62A$invalidez-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9770</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5049</v>
+        <v>4326</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17502</v>
+        <v>16961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1122169178640939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05799048308083452</v>
+        <v>0.04968482441971601</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2010248773794071</v>
+        <v>0.1948165313484651</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -765,19 +765,19 @@
         <v>3307</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7923</v>
+        <v>8301</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0793091633897888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02401637660578198</v>
+        <v>0.02377395602065462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1900309826937826</v>
+        <v>0.1991034135589581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -786,19 +786,19 @@
         <v>13076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6968</v>
+        <v>7445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21408</v>
+        <v>21781</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1015610051791956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05412133638867193</v>
+        <v>0.05782223037462307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1662705716730283</v>
+        <v>0.1691687965734892</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>76365</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68956</v>
+        <v>69083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81336</v>
+        <v>81640</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8771307289408943</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7920325525406676</v>
+        <v>0.793490848121792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9342270962789563</v>
+        <v>0.937726422427884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -836,19 +836,19 @@
         <v>33196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>26996</v>
+        <v>27213</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37463</v>
+        <v>37543</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.796207924719173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6475099884165256</v>
+        <v>0.6527117080940338</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8985746855180375</v>
+        <v>0.9004852982288879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>105</v>
@@ -857,19 +857,19 @@
         <v>109561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>99501</v>
+        <v>101052</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>116771</v>
+        <v>116476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8509269860912543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7727952769009244</v>
+        <v>0.7848366769030767</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9069242889457126</v>
+        <v>0.9046304363991343</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4696</v>
+        <v>4711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01065235319501185</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0539359987387</v>
+        <v>0.05411047161667373</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5090</v>
+        <v>5189</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02440885376733412</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1220786223350944</v>
+        <v>0.1244573127924233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6940</v>
+        <v>6152</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0151068676792158</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05390031319595127</v>
+        <v>0.04778353132434193</v>
       </c>
     </row>
     <row r="7">
@@ -970,19 +970,19 @@
         <v>5036</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1953</v>
+        <v>2011</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10339</v>
+        <v>10476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1207857429006873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04683817707622408</v>
+        <v>0.04824570960798956</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2479872675155084</v>
+        <v>0.2512680518129985</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -991,19 +991,19 @@
         <v>5036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1814</v>
+        <v>1822</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>10923</v>
+        <v>10494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03911182487201521</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01408664941241949</v>
+        <v>0.01415004230728387</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08483489600025342</v>
+        <v>0.08150735342797093</v>
       </c>
     </row>
     <row r="8">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5898</v>
+        <v>5876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0253794622852133</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07758676197019801</v>
+        <v>0.07730021680360696</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1045,19 +1045,19 @@
         <v>3518</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9260</v>
+        <v>8895</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1360430554112117</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03558270906504139</v>
+        <v>0.03580707225762589</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3580873816866452</v>
+        <v>0.3439579391039189</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -1066,19 +1066,19 @@
         <v>5447</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1908</v>
+        <v>1936</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12288</v>
+        <v>11740</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05346889483724838</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01872578697847744</v>
+        <v>0.01900352991360602</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1206109595663261</v>
+        <v>0.1152364385075405</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>73030</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68198</v>
+        <v>68067</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>75174</v>
+        <v>75207</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9606679483234478</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8971068769621166</v>
+        <v>0.8953793598970649</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9888752141425884</v>
+        <v>0.9893078057282797</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1116,19 +1116,19 @@
         <v>16541</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10437</v>
+        <v>11422</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>21160</v>
+        <v>21508</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6396238371749982</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4035873673749427</v>
+        <v>0.4416796147283014</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8182360482005738</v>
+        <v>0.8317107331054544</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -1137,19 +1137,19 @@
         <v>89571</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>80896</v>
+        <v>81454</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>95227</v>
+        <v>95233</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.879178213067293</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7940291809805949</v>
+        <v>0.7995133987964973</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9346977861374697</v>
+        <v>0.9347580311854748</v>
       </c>
     </row>
     <row r="10">
@@ -1179,19 +1179,19 @@
         <v>4415</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1071</v>
+        <v>1150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9694</v>
+        <v>9257</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1707349583196699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04140095989196173</v>
+        <v>0.04447803644748257</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3748821373297966</v>
+        <v>0.3579650718837518</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1200,19 +1200,19 @@
         <v>4415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1225</v>
+        <v>1157</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10898</v>
+        <v>11249</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04333718037272183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01202186863215495</v>
+        <v>0.01135692686260479</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1069648792671952</v>
+        <v>0.1104104879250066</v>
       </c>
     </row>
     <row r="11">
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4439</v>
+        <v>6231</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01395258939133893</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05839403546321077</v>
+        <v>0.08196825808071588</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6375</v>
+        <v>6830</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05359814909412025</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2465228097142771</v>
+        <v>0.264103971338007</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8131</v>
+        <v>7931</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02401571172273675</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07981058002530847</v>
+        <v>0.07784361976539213</v>
       </c>
     </row>
     <row r="12">
@@ -1304,19 +1304,19 @@
         <v>14772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8794</v>
+        <v>8774</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23347</v>
+        <v>23109</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1248025423357235</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07429896137578382</v>
+        <v>0.07412840811665235</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1972574086817117</v>
+        <v>0.1952442437228774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1325,19 +1325,19 @@
         <v>2822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7283</v>
+        <v>7158</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1329519130006403</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03862059247202507</v>
+        <v>0.03832959562851131</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.343120683915642</v>
+        <v>0.3372319670699204</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1346,19 +1346,19 @@
         <v>17594</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10837</v>
+        <v>11453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>25931</v>
+        <v>26757</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1260417991367295</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0776396865552105</v>
+        <v>0.08204954437218467</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1857693310194129</v>
+        <v>0.1916862818971344</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>101832</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>93400</v>
+        <v>93357</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107999</v>
+        <v>108166</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8603573655936217</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7891173695900281</v>
+        <v>0.7887579097297264</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9124636434358353</v>
+        <v>0.9138714851336163</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -1396,19 +1396,19 @@
         <v>15400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10790</v>
+        <v>10778</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18728</v>
+        <v>19017</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7255035128404277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5082915351160655</v>
+        <v>0.5077434527812144</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8822634370177281</v>
+        <v>0.8959093611818291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -1417,19 +1417,19 @@
         <v>117232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108120</v>
+        <v>107885</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125475</v>
+        <v>124988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8398504379991141</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7745712389649646</v>
+        <v>0.7728851126879785</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.898900516086504</v>
+        <v>0.8954148390907976</v>
       </c>
     </row>
     <row r="14">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5737</v>
+        <v>5996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01484009207065476</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04846769626263556</v>
+        <v>0.05065951550022015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5581</v>
+        <v>5308</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01258339204039525</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03998233959297853</v>
+        <v>0.03802836116284331</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>3005</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7827</v>
+        <v>8251</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.141544574158932</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03524923955908621</v>
+        <v>0.03492595446076858</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3687101561589914</v>
+        <v>0.3887086651373913</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -1543,19 +1543,19 @@
         <v>3005</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>8273</v>
+        <v>8024</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02152437082376123</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.005349220994438363</v>
+        <v>0.005151866516467618</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05926551206483498</v>
+        <v>0.0574855639395959</v>
       </c>
     </row>
     <row r="16">
@@ -1576,19 +1576,19 @@
         <v>25809</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18237</v>
+        <v>17056</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37820</v>
+        <v>37032</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07136921297408647</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05043036146675599</v>
+        <v>0.04716454424140523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1045826723867075</v>
+        <v>0.102405673468098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1597,19 +1597,19 @@
         <v>14603</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8497</v>
+        <v>8298</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22362</v>
+        <v>23275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1292147356821732</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07518146662708125</v>
+        <v>0.07342330348609426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1978705809097607</v>
+        <v>0.2059478509934209</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -1618,19 +1618,19 @@
         <v>40412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29514</v>
+        <v>30384</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>54717</v>
+        <v>55282</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08514258979133205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06218133752150064</v>
+        <v>0.06401580710916553</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.11528209686938</v>
+        <v>0.1164710000426946</v>
       </c>
     </row>
     <row r="17">
@@ -1647,19 +1647,19 @@
         <v>332898</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>321042</v>
+        <v>322535</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>341175</v>
+        <v>342650</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9205629289581632</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8877790120238073</v>
+        <v>0.8919069214703567</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9434522521698201</v>
+        <v>0.9475303575836203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -1668,19 +1668,19 @@
         <v>77469</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66875</v>
+        <v>67713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86365</v>
+        <v>86775</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6854838555541006</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5917365882775157</v>
+        <v>0.5991532720971094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7641994275500267</v>
+        <v>0.7678282165352266</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>430</v>
@@ -1689,19 +1689,19 @@
         <v>410368</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394324</v>
+        <v>393291</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>423673</v>
+        <v>423879</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8645891472675287</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8307880118748466</v>
+        <v>0.8286099064308533</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8926209495791368</v>
+        <v>0.8930555050028025</v>
       </c>
     </row>
     <row r="18">
@@ -1718,19 +1718,19 @@
         <v>2918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7928</v>
+        <v>7747</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008067858067750327</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002396329534045274</v>
+        <v>0.002407028724360741</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02192208766453098</v>
+        <v>0.02142279718844722</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1739,19 +1739,19 @@
         <v>7582</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3523</v>
+        <v>3750</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14255</v>
+        <v>14387</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.06709008476068073</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03117231649685439</v>
+        <v>0.03318007870554453</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1261321451094444</v>
+        <v>0.1273009011515643</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>11</v>
@@ -1760,19 +1760,19 @@
         <v>10500</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5606</v>
+        <v>5047</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>17584</v>
+        <v>18318</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02212141538344857</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01181192121754817</v>
+        <v>0.01063236360013596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03704777056601402</v>
+        <v>0.03859396892500792</v>
       </c>
     </row>
     <row r="19">
@@ -1802,19 +1802,19 @@
         <v>18494</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11390</v>
+        <v>10934</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27229</v>
+        <v>27539</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1636425311932781</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1007849600811672</v>
+        <v>0.09674517396323762</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2409348515008843</v>
+        <v>0.2436820537514839</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1823,19 +1823,19 @@
         <v>18494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10473</v>
+        <v>11141</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27492</v>
+        <v>27182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03896429904916027</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02206576299457487</v>
+        <v>0.02347269144659723</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05792272792646751</v>
+        <v>0.05726782738421319</v>
       </c>
     </row>
     <row r="20">
@@ -1856,19 +1856,19 @@
         <v>12249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6682</v>
+        <v>6646</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20255</v>
+        <v>20579</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1481180275635794</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08079302119901716</v>
+        <v>0.08035793520109649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2449249756956143</v>
+        <v>0.2488347512892865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1877,19 +1877,19 @@
         <v>11309</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6141</v>
+        <v>5668</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19795</v>
+        <v>19200</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.111796656937542</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06070997365051833</v>
+        <v>0.05602793574744485</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1956892948069392</v>
+        <v>0.1898058512841762</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -1898,19 +1898,19 @@
         <v>23558</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14701</v>
+        <v>14747</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>33327</v>
+        <v>34097</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1281344343519335</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07995971785826964</v>
+        <v>0.08021101367772486</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1812658646206434</v>
+        <v>0.1854534010681833</v>
       </c>
     </row>
     <row r="21">
@@ -1927,19 +1927,19 @@
         <v>69594</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61003</v>
+        <v>61765</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>75563</v>
+        <v>75261</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8415223869642869</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7376377149674744</v>
+        <v>0.7468545853499218</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.913697916881116</v>
+        <v>0.9100461464656033</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>52</v>
@@ -1948,19 +1948,19 @@
         <v>54663</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>44648</v>
+        <v>43743</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>64142</v>
+        <v>64777</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5403915449100393</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4413785897137085</v>
+        <v>0.4324367054559266</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6340922126988762</v>
+        <v>0.6403721577157243</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>126</v>
@@ -1969,19 +1969,19 @@
         <v>124257</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>111045</v>
+        <v>111464</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137312</v>
+        <v>136084</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6758437204555227</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6039800662127204</v>
+        <v>0.606258889090452</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.7468517778995648</v>
+        <v>0.7401684686473944</v>
       </c>
     </row>
     <row r="22">
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4326</v>
+        <v>4456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01035958547213365</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05230640319782517</v>
+        <v>0.05387650035767847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9481</v>
+        <v>10281</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02630802848245494</v>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09372369039612799</v>
+        <v>0.1016319244515361</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -2040,19 +2040,19 @@
         <v>3518</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10176</v>
+        <v>10671</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01913423224300493</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00468705893696859</v>
+        <v>0.004731140535378008</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05534787132112843</v>
+        <v>0.0580408667209685</v>
       </c>
     </row>
     <row r="23">
@@ -2082,19 +2082,19 @@
         <v>32522</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>24168</v>
+        <v>24188</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>42989</v>
+        <v>43104</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3215037696699638</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2389169568839775</v>
+        <v>0.2391141387628855</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4249781177995499</v>
+        <v>0.4261198009834019</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>32</v>
@@ -2103,19 +2103,19 @@
         <v>32522</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>22581</v>
+        <v>22269</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44487</v>
+        <v>43579</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1768876129495389</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1228191443271518</v>
+        <v>0.1211237922088051</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.241969356551538</v>
+        <v>0.2370271640267706</v>
       </c>
     </row>
     <row r="24">
@@ -2136,19 +2136,19 @@
         <v>7563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4312</v>
+        <v>4327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9491</v>
+        <v>9521</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.734737894242136</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4188573914051893</v>
+        <v>0.4203409604370035</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.9219600346864498</v>
+        <v>0.9248896202234788</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -2157,19 +2157,19 @@
         <v>11852</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6689</v>
+        <v>6844</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20268</v>
+        <v>20126</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0433921047376696</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0244878447519373</v>
+        <v>0.02505597316870579</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07420290644326588</v>
+        <v>0.07368346717243029</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>19</v>
@@ -2178,19 +2178,19 @@
         <v>19415</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11911</v>
+        <v>12406</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28229</v>
+        <v>29971</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06850123754223922</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04202573926430406</v>
+        <v>0.04377158579620136</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09959762478550771</v>
+        <v>0.1057433413966629</v>
       </c>
     </row>
     <row r="25">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4939</v>
+        <v>4932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1715420629614862</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4798063195899487</v>
+        <v>0.4791442958376113</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>26</v>
@@ -2228,19 +2228,19 @@
         <v>27863</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>19004</v>
+        <v>18306</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>38761</v>
+        <v>39152</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1020111028587176</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06957530809933568</v>
+        <v>0.06702113165600196</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1419107823877792</v>
+        <v>0.1433408679202659</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>28</v>
@@ -2249,19 +2249,19 @@
         <v>29629</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20684</v>
+        <v>21150</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41332</v>
+        <v>41461</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1045364123894244</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07297644839622092</v>
+        <v>0.07461970942357511</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1458284648179156</v>
+        <v>0.1462811788445224</v>
       </c>
     </row>
     <row r="26">
@@ -2291,19 +2291,19 @@
         <v>11526</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5751</v>
+        <v>5723</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>19793</v>
+        <v>19461</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04219839378954255</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02105453388805031</v>
+        <v>0.02095277368082094</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.07246690380375374</v>
+        <v>0.07125019182059616</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>11</v>
@@ -2312,19 +2312,19 @@
         <v>11526</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6171</v>
+        <v>5859</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19745</v>
+        <v>19126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04066578147037213</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02177382777237322</v>
+        <v>0.02067107264105109</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.06966336527347826</v>
+        <v>0.06747876186211915</v>
       </c>
     </row>
     <row r="27">
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4777</v>
+        <v>4016</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09372004279637788</v>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4641025250516558</v>
+        <v>0.3900857370258387</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>211</v>
@@ -2362,19 +2362,19 @@
         <v>223064</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>209246</v>
+        <v>210170</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>235009</v>
+        <v>235498</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8166716150540476</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.766082432780907</v>
+        <v>0.7694632446029381</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8604050762298482</v>
+        <v>0.8621960205776062</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>212</v>
@@ -2383,19 +2383,19 @@
         <v>224029</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>210015</v>
+        <v>208643</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>237163</v>
+        <v>236701</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7904145851933444</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7409705593867725</v>
+        <v>0.7361298143889479</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8367538324206935</v>
+        <v>0.8351262327661561</v>
       </c>
     </row>
     <row r="28">
@@ -2416,19 +2416,19 @@
         <v>72092</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57216</v>
+        <v>55962</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>88664</v>
+        <v>89356</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09794363144406772</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07773221212293147</v>
+        <v>0.07602967311937349</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1204576589167899</v>
+        <v>0.12139706365614</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2437,19 +2437,19 @@
         <v>47411</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35381</v>
+        <v>35563</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>62311</v>
+        <v>61287</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08229793987075504</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06141543492966444</v>
+        <v>0.06173126755344598</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1081631461637326</v>
+        <v>0.106384347923355</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>116</v>
@@ -2458,19 +2458,19 @@
         <v>119503</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>99928</v>
+        <v>100426</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>141389</v>
+        <v>143584</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09107453666895604</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07615595022356303</v>
+        <v>0.07653546820916611</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1077537402679411</v>
+        <v>0.1094270889523786</v>
       </c>
     </row>
     <row r="29">
@@ -2487,19 +2487,19 @@
         <v>655485</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>638727</v>
+        <v>637278</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>671177</v>
+        <v>670822</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8905306923294481</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.867763683343125</v>
+        <v>0.8657946756293191</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9118495973703507</v>
+        <v>0.9113678462581634</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>221</v>
@@ -2508,19 +2508,19 @@
         <v>225132</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>201796</v>
+        <v>203268</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>250649</v>
+        <v>250212</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.390796189483865</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.35028840902277</v>
+        <v>0.3528436991532604</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4350893710054947</v>
+        <v>0.4343306612705364</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>897</v>
@@ -2529,19 +2529,19 @@
         <v>880617</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>847946</v>
+        <v>846063</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>913383</v>
+        <v>914941</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6711269257171162</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6462281893191606</v>
+        <v>0.6447928351906502</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6960982240406809</v>
+        <v>0.6972854576481387</v>
       </c>
     </row>
     <row r="30">
@@ -2558,19 +2558,19 @@
         <v>6458</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2784</v>
+        <v>2830</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12562</v>
+        <v>13205</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008773956054312198</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.003781976270310106</v>
+        <v>0.003845165571293088</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01706631001879627</v>
+        <v>0.01794031102148534</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>26</v>
@@ -2579,19 +2579,19 @@
         <v>27202</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>18639</v>
+        <v>17402</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38450</v>
+        <v>38165</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04721893638108128</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0323546080070905</v>
+        <v>0.03020704318614225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06674302125870396</v>
+        <v>0.06624851495019894</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>33</v>
@@ -2600,19 +2600,19 @@
         <v>33660</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23120</v>
+        <v>23763</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>45304</v>
+        <v>46535</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.02565286564130249</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01761977859871773</v>
+        <v>0.01811016493594389</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03452674025061886</v>
+        <v>0.0354646579170117</v>
       </c>
     </row>
     <row r="31">
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>7178</v>
+        <v>8054</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002751720172171909</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.009752050922548845</v>
+        <v>0.01094219616320476</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -2650,19 +2650,19 @@
         <v>283506</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>258716</v>
+        <v>259339</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>307967</v>
+        <v>307087</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4921244463497008</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4490928486730577</v>
+        <v>0.4501747203678709</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5345852155108695</v>
+        <v>0.5330574690076794</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>272</v>
@@ -2671,19 +2671,19 @@
         <v>285531</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>256120</v>
+        <v>255870</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>319342</v>
+        <v>314323</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2176062455037405</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.195191306899015</v>
+        <v>0.1950011247736812</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2433736179441298</v>
+        <v>0.2395488883364583</v>
       </c>
     </row>
     <row r="32">
@@ -2946,19 +2946,19 @@
         <v>9216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4158</v>
+        <v>4109</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17375</v>
+        <v>16493</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1315722608475424</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05936565138876209</v>
+        <v>0.05865826651972798</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2480522501840016</v>
+        <v>0.235468226194179</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2967,19 +2967,19 @@
         <v>4878</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1898</v>
+        <v>1815</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10538</v>
+        <v>9396</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1309947161840745</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05096461657049105</v>
+        <v>0.04874546898100716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2829901723265867</v>
+        <v>0.2523166601897955</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2988,19 +2988,19 @@
         <v>14094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7532</v>
+        <v>8070</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22714</v>
+        <v>22885</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1313717973913971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07021058634960968</v>
+        <v>0.07522390435749672</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2117219846250101</v>
+        <v>0.2133206958720856</v>
       </c>
     </row>
     <row r="5">
@@ -3017,19 +3017,19 @@
         <v>58767</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50373</v>
+        <v>51163</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63978</v>
+        <v>64485</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8390053144703492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7191553628909639</v>
+        <v>0.7304467346261834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.913392529713832</v>
+        <v>0.9206398958065929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3038,19 +3038,19 @@
         <v>27452</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21281</v>
+        <v>21596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32087</v>
+        <v>32453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7372169885806923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5715035212263959</v>
+        <v>0.5799577824555272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8617035896311306</v>
+        <v>0.8715326508912346</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -3059,19 +3059,19 @@
         <v>86219</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>75928</v>
+        <v>77507</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>94019</v>
+        <v>94068</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8036749913044137</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7077458899171017</v>
+        <v>0.7224636821974147</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8763801145079256</v>
+        <v>0.8768344161774827</v>
       </c>
     </row>
     <row r="6">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6341</v>
+        <v>7097</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02942242468210834</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09052532105830698</v>
+        <v>0.1013271733875136</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6391</v>
+        <v>6448</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05447797391922218</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1716397653630841</v>
+        <v>0.1731573976865979</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -3130,19 +3130,19 @@
         <v>4089</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9931</v>
+        <v>9509</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03811910619160541</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009770550654942634</v>
+        <v>0.00972381579361942</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09256770336777045</v>
+        <v>0.08863415241716413</v>
       </c>
     </row>
     <row r="7">
@@ -3172,19 +3172,19 @@
         <v>4957</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1856</v>
+        <v>1796</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9937</v>
+        <v>9959</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1331074203743168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04985371023578832</v>
+        <v>0.04821883428191157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2668530582435379</v>
+        <v>0.2674484266235757</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -3193,19 +3193,19 @@
         <v>4956</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1868</v>
+        <v>1830</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11365</v>
+        <v>11237</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04620105632453971</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01740952686680962</v>
+        <v>0.01705442039970616</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1059351887247359</v>
+        <v>0.1047470649174125</v>
       </c>
     </row>
     <row r="8">
@@ -3226,19 +3226,19 @@
         <v>12641</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6123</v>
+        <v>6260</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22531</v>
+        <v>22719</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1325128212848122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06419011865352814</v>
+        <v>0.06561930093944304</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.236190396500802</v>
+        <v>0.2381624673712503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -3247,19 +3247,19 @@
         <v>7641</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3062</v>
+        <v>2975</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17142</v>
+        <v>15639</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2046854935871817</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.08202736723231388</v>
+        <v>0.07968368178593563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4592148490165159</v>
+        <v>0.4189401214038824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -3268,19 +3268,19 @@
         <v>20281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12276</v>
+        <v>11635</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32143</v>
+        <v>31546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1528118876627178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09249419230085601</v>
+        <v>0.08766248819890413</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2421832510202663</v>
+        <v>0.2376841632160108</v>
       </c>
     </row>
     <row r="9">
@@ -3297,19 +3297,19 @@
         <v>81538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>70584</v>
+        <v>71128</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88501</v>
+        <v>88351</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8547611435938369</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7399244608487295</v>
+        <v>0.7456267216886489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9277554483687296</v>
+        <v>0.9261824995723057</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -3318,19 +3318,19 @@
         <v>16635</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10151</v>
+        <v>10322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23403</v>
+        <v>23891</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4456439624847681</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2719402478810128</v>
+        <v>0.2765253739453095</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6269349005808614</v>
+        <v>0.6400136621273936</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>85</v>
@@ -3339,19 +3339,19 @@
         <v>98174</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84226</v>
+        <v>84969</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>108549</v>
+        <v>109340</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7396940891153517</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6346071297647593</v>
+        <v>0.6401999083945769</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8178697879644884</v>
+        <v>0.8238300423519248</v>
       </c>
     </row>
     <row r="10">
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6023</v>
+        <v>5086</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01272603512135091</v>
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06314169551191304</v>
+        <v>0.05332143251685301</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -3389,19 +3389,19 @@
         <v>8805</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3965</v>
+        <v>3754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17495</v>
+        <v>16497</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2358818411706144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1062222784697677</v>
+        <v>0.100567017386557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4686742404482028</v>
+        <v>0.4419339337273553</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3410,19 +3410,19 @@
         <v>10019</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4496</v>
+        <v>4233</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19350</v>
+        <v>19337</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07549015864765002</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03387196769610252</v>
+        <v>0.03189104815790487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.145797162348789</v>
+        <v>0.1456924055239855</v>
       </c>
     </row>
     <row r="11">
@@ -3452,19 +3452,19 @@
         <v>5233</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10849</v>
+        <v>11607</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1401925233807021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05396035190153513</v>
+        <v>0.05353115440132043</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2906450283308358</v>
+        <v>0.3109446268157456</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -3473,19 +3473,19 @@
         <v>5233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2023</v>
+        <v>1158</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11044</v>
+        <v>11375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03943012288457999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01524089199154098</v>
+        <v>0.008728409263236248</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08320947355457022</v>
+        <v>0.08570836481250203</v>
       </c>
     </row>
     <row r="12">
@@ -3506,19 +3506,19 @@
         <v>27584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18860</v>
+        <v>18818</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38481</v>
+        <v>39349</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1490313206069539</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1018946024220201</v>
+        <v>0.1016676758422265</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2079075862326013</v>
+        <v>0.2125931186820321</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -3527,19 +3527,19 @@
         <v>7313</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3239</v>
+        <v>3068</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15005</v>
+        <v>14496</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1241053642579309</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05496726169322883</v>
+        <v>0.0520650997755359</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2546454357675454</v>
+        <v>0.2460033336157637</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>32</v>
@@ -3548,19 +3548,19 @@
         <v>34897</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>24787</v>
+        <v>24081</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>48349</v>
+        <v>47219</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1430119757954857</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1015781609831887</v>
+        <v>0.09868450223763289</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1981358379220106</v>
+        <v>0.1935078879015442</v>
       </c>
     </row>
     <row r="13">
@@ -3577,19 +3577,19 @@
         <v>142644</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>129088</v>
+        <v>128746</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>154053</v>
+        <v>154211</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7706766429966748</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6974371842893883</v>
+        <v>0.6955890943334868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.832318052096218</v>
+        <v>0.8331727860188065</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3598,19 +3598,19 @@
         <v>39476</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31192</v>
+        <v>30962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45907</v>
+        <v>45950</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6699190876190522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5293296715039998</v>
+        <v>0.5254348506832736</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7790534076214729</v>
+        <v>0.7797727100718715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>162</v>
@@ -3619,19 +3619,19 @@
         <v>182121</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168079</v>
+        <v>164852</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>196430</v>
+        <v>194736</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7463447995285187</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6887991018647898</v>
+        <v>0.6755753852249622</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8049859855493162</v>
+        <v>0.7980438059256488</v>
       </c>
     </row>
     <row r="14">
@@ -3648,19 +3648,19 @@
         <v>12786</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6748</v>
+        <v>6399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23204</v>
+        <v>22228</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06908021829568738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03646074351038636</v>
+        <v>0.0345715117804418</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1253649393419072</v>
+        <v>0.1200925434194947</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6199</v>
+        <v>7002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0339049229667102</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1051934801249375</v>
+        <v>0.1188217143797197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -3690,19 +3690,19 @@
         <v>14784</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8205</v>
+        <v>8138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24500</v>
+        <v>26010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06058577064178054</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03362454363166722</v>
+        <v>0.03335165763144008</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1004021750744795</v>
+        <v>0.1065902992105228</v>
       </c>
     </row>
     <row r="15">
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9402</v>
+        <v>8311</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01121181810068391</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05079512031165943</v>
+        <v>0.04490151678347531</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -3740,19 +3740,19 @@
         <v>14301</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8146</v>
+        <v>8840</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21460</v>
+        <v>22152</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2426972077174741</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1382425513771788</v>
+        <v>0.1500150301971145</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3641870215593611</v>
+        <v>0.3759306109716574</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>15</v>
@@ -3761,19 +3761,19 @@
         <v>16377</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9315</v>
+        <v>9905</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26365</v>
+        <v>26944</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06711299835670849</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0381735866184545</v>
+        <v>0.0405898172072934</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1080462743570897</v>
+        <v>0.1104202160763941</v>
       </c>
     </row>
     <row r="16">
@@ -3794,19 +3794,19 @@
         <v>62745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50689</v>
+        <v>47586</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79637</v>
+        <v>78140</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1793787315885299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.144912640947316</v>
+        <v>0.1360416484137276</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2276675266927365</v>
+        <v>0.2233882123978977</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -3815,19 +3815,19 @@
         <v>14094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7581</v>
+        <v>7790</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>22755</v>
+        <v>22911</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1216698598650055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06544673646023447</v>
+        <v>0.06725213843057908</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1964390649232197</v>
+        <v>0.1977851861325331</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>69</v>
@@ -3836,19 +3836,19 @@
         <v>76839</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>59998</v>
+        <v>61100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>94490</v>
+        <v>95758</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1650221137004781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1288538136492633</v>
+        <v>0.1312188249618377</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.202928957758324</v>
+        <v>0.2056520678952546</v>
       </c>
     </row>
     <row r="17">
@@ -3865,19 +3865,19 @@
         <v>260885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>242117</v>
+        <v>243509</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>275059</v>
+        <v>276485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7458258871847064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6921728402900293</v>
+        <v>0.6961513147629121</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7863465185756511</v>
+        <v>0.7904257452362973</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>47</v>
@@ -3886,19 +3886,19 @@
         <v>49720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39385</v>
+        <v>39148</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61230</v>
+        <v>59914</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4292225091211438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3400043826805744</v>
+        <v>0.3379509024613127</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5285854483790917</v>
+        <v>0.517224211800617</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>290</v>
@@ -3907,19 +3907,19 @@
         <v>310605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>287835</v>
+        <v>287928</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>330150</v>
+        <v>331337</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6670623698055905</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6181611841285934</v>
+        <v>0.6183604694618444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.709037679185076</v>
+        <v>0.7115874909332618</v>
       </c>
     </row>
     <row r="18">
@@ -3936,19 +3936,19 @@
         <v>26163</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16373</v>
+        <v>16990</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37046</v>
+        <v>38342</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07479538122676364</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04680777864223359</v>
+        <v>0.04857300604446088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.105907649578074</v>
+        <v>0.1096144707727522</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -3957,19 +3957,19 @@
         <v>33476</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>24074</v>
+        <v>24357</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44594</v>
+        <v>44840</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2889875336163537</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2078204729420185</v>
+        <v>0.210267606907614</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3849713617107789</v>
+        <v>0.387090961950164</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>53</v>
@@ -3978,19 +3978,19 @@
         <v>59639</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>46007</v>
+        <v>44222</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>76421</v>
+        <v>74788</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1280813803225179</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09880493940115218</v>
+        <v>0.09497196370922617</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1641231177397332</v>
+        <v>0.1606162471083125</v>
       </c>
     </row>
     <row r="19">
@@ -4020,19 +4020,19 @@
         <v>18548</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10702</v>
+        <v>11192</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27654</v>
+        <v>28424</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1601200973974969</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09238440989127653</v>
+        <v>0.09661908626219202</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2387339729404289</v>
+        <v>0.2453808505154157</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -4041,19 +4041,19 @@
         <v>18548</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10613</v>
+        <v>11590</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29720</v>
+        <v>29941</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03983413617141358</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02279309938025083</v>
+        <v>0.02489007301249853</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06382681819486288</v>
+        <v>0.06430276562474878</v>
       </c>
     </row>
     <row r="20">
@@ -4074,19 +4074,19 @@
         <v>20686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>13152</v>
+        <v>13082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>30297</v>
+        <v>29211</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1354720972599527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.086136805018787</v>
+        <v>0.08567819105571739</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1984207723241406</v>
+        <v>0.1913064040022715</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>29</v>
@@ -4095,19 +4095,19 @@
         <v>31403</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21398</v>
+        <v>22227</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43629</v>
+        <v>44895</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1386058922302734</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09444787678574063</v>
+        <v>0.09810794230906528</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1925724056903686</v>
+        <v>0.1981575310609862</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -4116,19 +4116,19 @@
         <v>52088</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>40511</v>
+        <v>40167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>68306</v>
+        <v>67536</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1373441863289319</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1068190987544896</v>
+        <v>0.105909970073976</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1801079701012714</v>
+        <v>0.1780772479938264</v>
       </c>
     </row>
     <row r="21">
@@ -4145,19 +4145,19 @@
         <v>119881</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>108411</v>
+        <v>109363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128587</v>
+        <v>129170</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.785119243601609</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7100001498734466</v>
+        <v>0.7162295738967085</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.842135516412326</v>
+        <v>0.8459495696979884</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>116</v>
@@ -4166,19 +4166,19 @@
         <v>123475</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>109387</v>
+        <v>109134</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>140349</v>
+        <v>138923</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5449994601498142</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4828156517257698</v>
+        <v>0.4817023986414299</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6194804856930939</v>
+        <v>0.613184343226894</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>227</v>
@@ -4187,19 +4187,19 @@
         <v>243356</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>226079</v>
+        <v>223276</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>263070</v>
+        <v>260691</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.641674753421787</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5961186441420023</v>
+        <v>0.5887269050530346</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6936541104923613</v>
+        <v>0.687382585125342</v>
       </c>
     </row>
     <row r="22">
@@ -4216,19 +4216,19 @@
         <v>11162</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5611</v>
+        <v>6057</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20377</v>
+        <v>19185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07309848441246949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03674423572882823</v>
+        <v>0.03966805554562581</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1334490775068757</v>
+        <v>0.1256418196173092</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -4237,19 +4237,19 @@
         <v>19087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11611</v>
+        <v>12191</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28419</v>
+        <v>28727</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08424617803287057</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05124817822738646</v>
+        <v>0.05380891103973796</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1254350550220807</v>
+        <v>0.1267955893665184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -4258,19 +4258,19 @@
         <v>30248</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21503</v>
+        <v>21219</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42645</v>
+        <v>43525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07975797412661172</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05669729487843915</v>
+        <v>0.05594992072377578</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1124452536727232</v>
+        <v>0.1147652666822245</v>
       </c>
     </row>
     <row r="23">
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5351</v>
+        <v>5132</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006310174725968824</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03504580945483669</v>
+        <v>0.03360944875497774</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>58</v>
@@ -4308,19 +4308,19 @@
         <v>62088</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48900</v>
+        <v>48349</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>75837</v>
+        <v>75994</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2740468028479737</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2158380870089729</v>
+        <v>0.2134047018572146</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3347341610174511</v>
+        <v>0.3354256729560992</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -4329,19 +4329,19 @@
         <v>63052</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>48974</v>
+        <v>50128</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>77735</v>
+        <v>79439</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1662526150003064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1291342834283352</v>
+        <v>0.1321770058229164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2049680971013334</v>
+        <v>0.2094610929185541</v>
       </c>
     </row>
     <row r="24">
@@ -4362,19 +4362,19 @@
         <v>10078</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5225</v>
+        <v>5621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13975</v>
+        <v>13883</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.626138504938182</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.324653205363833</v>
+        <v>0.3492523760055823</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.868265526113999</v>
+        <v>0.8625661785545345</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>12</v>
@@ -4383,19 +4383,19 @@
         <v>13081</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>7364</v>
+        <v>6791</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22333</v>
+        <v>21967</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04858677328796401</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0273522292831575</v>
+        <v>0.02522495785655738</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08295184754926645</v>
+        <v>0.08159501951056031</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -4404,19 +4404,19 @@
         <v>23158</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15026</v>
+        <v>15058</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>34615</v>
+        <v>34543</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08116682016090231</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05266507649167305</v>
+        <v>0.05277550692962651</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1213214933226252</v>
+        <v>0.1210682276407887</v>
       </c>
     </row>
     <row r="25">
@@ -4436,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6919</v>
+        <v>6115</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1330708272824168</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4298975764544701</v>
+        <v>0.3799119527750049</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4454,19 +4454,19 @@
         <v>8256</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3283</v>
+        <v>3224</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17010</v>
+        <v>16180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03066741760554054</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01219572566402609</v>
+        <v>0.01197463043275654</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06318213924116235</v>
+        <v>0.06009888318472167</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -4475,19 +4475,19 @@
         <v>10398</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4446</v>
+        <v>5322</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18984</v>
+        <v>19767</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03644405665688338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01558123246206219</v>
+        <v>0.01865449738341668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06653768853141469</v>
+        <v>0.06927867911939771</v>
       </c>
     </row>
     <row r="26">
@@ -4504,19 +4504,19 @@
         <v>3876</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>936</v>
+        <v>997</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9156</v>
+        <v>8542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2407906677794013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05813292645159304</v>
+        <v>0.06195533810756466</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.568883982102795</v>
+        <v>0.5307426372215475</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -4525,19 +4525,19 @@
         <v>30681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21481</v>
+        <v>21264</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>42721</v>
+        <v>41545</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1139626276783405</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07978875135514313</v>
+        <v>0.07898186175581264</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1586818372054435</v>
+        <v>0.1543136203454237</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>32</v>
@@ -4546,19 +4546,19 @@
         <v>34557</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23850</v>
+        <v>24620</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>46442</v>
+        <v>47465</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1211170750894651</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0835916602357475</v>
+        <v>0.08628813968174981</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.162773891731093</v>
+        <v>0.166357222371283</v>
       </c>
     </row>
     <row r="27">
@@ -4588,19 +4588,19 @@
         <v>218222</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>202696</v>
+        <v>204721</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>229998</v>
+        <v>230423</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.8105606518124167</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7528895922551758</v>
+        <v>0.7604112656762837</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8542989717156086</v>
+        <v>0.8558784597961612</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>203</v>
@@ -4609,19 +4609,19 @@
         <v>218222</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>203798</v>
+        <v>203654</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>232676</v>
+        <v>232563</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7648364290593258</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7142828758454071</v>
+        <v>0.7137748360781926</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8154940576940958</v>
+        <v>0.8150989134395826</v>
       </c>
     </row>
     <row r="28">
@@ -4642,19 +4642,19 @@
         <v>142949</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>121283</v>
+        <v>119657</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>166492</v>
+        <v>167553</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1644786001394351</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1395493797892518</v>
+        <v>0.1376781450399963</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1915667945900313</v>
+        <v>0.1927873690388212</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -4663,19 +4663,19 @@
         <v>78409</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>61622</v>
+        <v>62288</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>96352</v>
+        <v>98346</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1052307167338967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08270165315986097</v>
+        <v>0.08359520495984399</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1293109797938031</v>
+        <v>0.1319877511751353</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>198</v>
@@ -4684,19 +4684,19 @@
         <v>221358</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>193865</v>
+        <v>195861</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>251011</v>
+        <v>251001</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1371301072390719</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1200980420760145</v>
+        <v>0.1213345583970411</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1554998588211904</v>
+        <v>0.155493432421945</v>
       </c>
     </row>
     <row r="29">
@@ -4713,19 +4713,19 @@
         <v>665857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>639120</v>
+        <v>637386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>691347</v>
+        <v>692778</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7661403366488272</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7353766511753486</v>
+        <v>0.7333813865700037</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7954686428695037</v>
+        <v>0.7971151885697817</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>245</v>
@@ -4734,19 +4734,19 @@
         <v>265016</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>238891</v>
+        <v>238092</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>289729</v>
+        <v>292921</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3556702576769365</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3206092152663324</v>
+        <v>0.3195363094331975</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3888379883505367</v>
+        <v>0.3931208291203985</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>848</v>
@@ -4755,19 +4755,19 @@
         <v>930873</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>890518</v>
+        <v>888491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>968990</v>
+        <v>971942</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5766696349912399</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5516700602178175</v>
+        <v>0.5504145760414949</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6002831130191911</v>
+        <v>0.6021117383095554</v>
       </c>
     </row>
     <row r="30">
@@ -4784,19 +4784,19 @@
         <v>57261</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43172</v>
+        <v>43432</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76283</v>
+        <v>74064</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06588471201514413</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04967420629224576</v>
+        <v>0.04997313553312964</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08777174924877915</v>
+        <v>0.08521834367002212</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>88</v>
@@ -4805,19 +4805,19 @@
         <v>96076</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>77180</v>
+        <v>78225</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>115340</v>
+        <v>117718</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1289408440181865</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1035816230536537</v>
+        <v>0.1049838863414742</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.154794321656047</v>
+        <v>0.1579866813596432</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -4826,19 +4826,19 @@
         <v>153337</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>131523</v>
+        <v>129330</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>181825</v>
+        <v>177911</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09499107125174037</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08147767109031817</v>
+        <v>0.08011917445638607</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1126394178868625</v>
+        <v>0.1102149176064908</v>
       </c>
     </row>
     <row r="31">
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>11524</v>
+        <v>10952</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00349635119659365</v>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01325967187296638</v>
+        <v>0.01260135278555953</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>301</v>
@@ -4876,19 +4876,19 @@
         <v>323350</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>295625</v>
+        <v>292873</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>350805</v>
+        <v>350717</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4339593879091087</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3967503892272641</v>
+        <v>0.3930566790140714</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4708057355363304</v>
+        <v>0.4706883488149062</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>303</v>
@@ -4897,19 +4897,19 @@
         <v>326389</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>295115</v>
+        <v>292364</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>358982</v>
+        <v>356384</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2021956907632208</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1828218760025273</v>
+        <v>0.1811177462489197</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2223868102522418</v>
+        <v>0.2207773305099338</v>
       </c>
     </row>
     <row r="32">
@@ -5172,19 +5172,19 @@
         <v>7172</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3074</v>
+        <v>3012</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15279</v>
+        <v>13500</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07305426910549445</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03130796665861437</v>
+        <v>0.03067957118886504</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1556180797272848</v>
+        <v>0.1374996851226937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5193,19 +5193,19 @@
         <v>2970</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>899</v>
+        <v>910</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7929</v>
+        <v>8182</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05984151101950354</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01810714596470437</v>
+        <v>0.01833209148892606</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1597658646905153</v>
+        <v>0.1648574463930121</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -5214,19 +5214,19 @@
         <v>10143</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5119</v>
+        <v>5079</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17513</v>
+        <v>17946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06861772049066656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03463185374115418</v>
+        <v>0.03436177137849233</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1184795136470644</v>
+        <v>0.1214076879487437</v>
       </c>
     </row>
     <row r="5">
@@ -5243,19 +5243,19 @@
         <v>87806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>78519</v>
+        <v>80575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92806</v>
+        <v>92928</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8943326630004053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7997488530200968</v>
+        <v>0.8206832777562961</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9452682841953146</v>
+        <v>0.9465021494926236</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>35</v>
@@ -5264,19 +5264,19 @@
         <v>43836</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38276</v>
+        <v>37794</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47648</v>
+        <v>47651</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8832280921072619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7711963002674044</v>
+        <v>0.7614790801053121</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9600232657742114</v>
+        <v>0.9600869088991045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -5285,19 +5285,19 @@
         <v>131643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122456</v>
+        <v>122521</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>137858</v>
+        <v>138543</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8906039964878117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8284507887074464</v>
+        <v>0.8288939084280327</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9326527038131909</v>
+        <v>0.9372887506810416</v>
       </c>
     </row>
     <row r="6">
@@ -5314,19 +5314,19 @@
         <v>3202</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8523</v>
+        <v>7742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0326130678941003</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01064478138775393</v>
+        <v>0.01053105931575919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08681435407086725</v>
+        <v>0.07885246497261353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -5335,19 +5335,19 @@
         <v>2826</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>894</v>
+        <v>832</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8173</v>
+        <v>7113</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05693039687323456</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01801627487041956</v>
+        <v>0.01675675154763359</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1646770499820094</v>
+        <v>0.1433095256732466</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -5356,19 +5356,19 @@
         <v>6028</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2160</v>
+        <v>2080</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13218</v>
+        <v>12436</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04077828302152171</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01461617062569745</v>
+        <v>0.01406981967737359</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08942634609677229</v>
+        <v>0.08413533868307643</v>
       </c>
     </row>
     <row r="7">
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6035</v>
+        <v>4571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02173503149329494</v>
@@ -5410,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.121597418478063</v>
+        <v>0.09209962725773953</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5140</v>
+        <v>5416</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007298137393967633</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03477655423908476</v>
+        <v>0.03663954731304651</v>
       </c>
     </row>
     <row r="8">
@@ -5452,19 +5452,19 @@
         <v>7455</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3391</v>
+        <v>3117</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14108</v>
+        <v>14831</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09415456150034092</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04282690247085217</v>
+        <v>0.03936431985600075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1781902627763977</v>
+        <v>0.1873114015361124</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -5473,19 +5473,19 @@
         <v>4085</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9045</v>
+        <v>9341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1122680010121266</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0275399669696387</v>
+        <v>0.02733447398984565</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2485989399455008</v>
+        <v>0.2567281978654771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -5494,19 +5494,19 @@
         <v>11539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6163</v>
+        <v>6097</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19217</v>
+        <v>18679</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09985750192680762</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05333481266513481</v>
+        <v>0.05276380337951971</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.16629608371783</v>
+        <v>0.1616373932976491</v>
       </c>
     </row>
     <row r="9">
@@ -5523,19 +5523,19 @@
         <v>68648</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>61294</v>
+        <v>61449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>73952</v>
+        <v>73909</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.8670356323550519</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7741508232876411</v>
+        <v>0.7761025218769741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9340181941013651</v>
+        <v>0.9334762158322132</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>21</v>
@@ -5544,19 +5544,19 @@
         <v>23277</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16621</v>
+        <v>17238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28969</v>
+        <v>28538</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6397815653096006</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4568251025737639</v>
+        <v>0.473802448754271</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7962183362280514</v>
+        <v>0.7843877740790409</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>90</v>
@@ -5565,19 +5565,19 @@
         <v>91926</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>81590</v>
+        <v>82258</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>99643</v>
+        <v>99672</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.7954856429016841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.7060433189583659</v>
+        <v>0.7118225434948613</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.8622656914107182</v>
+        <v>0.8625204309010281</v>
       </c>
     </row>
     <row r="10">
@@ -5594,19 +5594,19 @@
         <v>3073</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8305</v>
+        <v>8371</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0388098061446072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01246502138605575</v>
+        <v>0.0123640120136042</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1048962307877127</v>
+        <v>0.1057202487972282</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -5615,19 +5615,19 @@
         <v>7918</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3058</v>
+        <v>3919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13971</v>
+        <v>14781</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2176388551822497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08404890702406782</v>
+        <v>0.1077233723005528</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3839868842959871</v>
+        <v>0.4062700636587401</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -5636,19 +5636,19 @@
         <v>10991</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5841</v>
+        <v>5827</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19433</v>
+        <v>20292</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0951133818691289</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05054772803316825</v>
+        <v>0.05042138704432948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1681666320094992</v>
+        <v>0.1756017387474371</v>
       </c>
     </row>
     <row r="11">
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6511</v>
+        <v>6405</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05824490477028914</v>
@@ -5690,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1789615338907228</v>
+        <v>0.1760495533276515</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7436</v>
+        <v>7559</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01833816387186198</v>
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06435176580772232</v>
+        <v>0.06540966873756458</v>
       </c>
     </row>
     <row r="12">
@@ -5732,19 +5732,19 @@
         <v>11495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6070</v>
+        <v>5993</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19051</v>
+        <v>19162</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06614651968053993</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03493121846648573</v>
+        <v>0.03448284473471801</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1096245352331684</v>
+        <v>0.1102633461985782</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -5753,19 +5753,19 @@
         <v>2991</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7763</v>
+        <v>7785</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06095096207763092</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0</v>
+        <v>0.01826485299564592</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1581768608572487</v>
+        <v>0.1586347619878598</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -5774,19 +5774,19 @@
         <v>14486</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8104</v>
+        <v>8144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22922</v>
+        <v>22892</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06500238675370142</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03636242749682066</v>
+        <v>0.03654342928886111</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1028534890079266</v>
+        <v>0.1027194752222203</v>
       </c>
     </row>
     <row r="13">
@@ -5803,19 +5803,19 @@
         <v>150372</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138095</v>
+        <v>140051</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>158060</v>
+        <v>158413</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8652883531070167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7946432225953888</v>
+        <v>0.8058980398902689</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9095259503288158</v>
+        <v>0.9115543263781457</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -5824,19 +5824,19 @@
         <v>36525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28974</v>
+        <v>28591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42361</v>
+        <v>42278</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7442475431655371</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.590386261136324</v>
+        <v>0.5825837239310396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8631510604146795</v>
+        <v>0.8614578083315891</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -5845,19 +5845,19 @@
         <v>186898</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174293</v>
+        <v>175420</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197208</v>
+        <v>198595</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8386335093482425</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7820717659730879</v>
+        <v>0.7871310001606762</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8848979452934904</v>
+        <v>0.8911200739812362</v>
       </c>
     </row>
     <row r="14">
@@ -5874,19 +5874,19 @@
         <v>11915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6433</v>
+        <v>6106</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21804</v>
+        <v>20222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06856512721244339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03701811845304086</v>
+        <v>0.03513512393608688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1254652616727516</v>
+        <v>0.1163607065529236</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -5895,19 +5895,19 @@
         <v>4358</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1046</v>
+        <v>1004</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11111</v>
+        <v>11868</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08879158300149598</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02131956923554955</v>
+        <v>0.02046761379513705</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2263992906509738</v>
+        <v>0.2418309466178503</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -5916,19 +5916,19 @@
         <v>16273</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8787</v>
+        <v>9182</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27113</v>
+        <v>26363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07301926973769257</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03942716792822343</v>
+        <v>0.04120271395051785</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1216593229687479</v>
+        <v>0.1182955472966474</v>
       </c>
     </row>
     <row r="15">
@@ -5958,19 +5958,19 @@
         <v>5203</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1272</v>
+        <v>1666</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11190</v>
+        <v>12802</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.106009911755336</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.0259093984448624</v>
+        <v>0.03394059441999166</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2280095517317037</v>
+        <v>0.2608607084326158</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -5979,19 +5979,19 @@
         <v>5203</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1686</v>
+        <v>1240</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>13495</v>
+        <v>12219</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02334483416036343</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007566130583376335</v>
+        <v>0.005565624527846123</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06055476260111205</v>
+        <v>0.05482659257705656</v>
       </c>
     </row>
     <row r="16">
@@ -6012,19 +6012,19 @@
         <v>38064</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26888</v>
+        <v>26201</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51891</v>
+        <v>52216</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.110098793417039</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0777729473933053</v>
+        <v>0.07578648975437353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1500932609480141</v>
+        <v>0.1510351056394862</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -6033,19 +6033,19 @@
         <v>16494</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9353</v>
+        <v>10106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25370</v>
+        <v>26594</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1140897447109478</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06469873878500745</v>
+        <v>0.06990167542863653</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1754841527321014</v>
+        <v>0.1839490305756563</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -6054,19 +6054,19 @@
         <v>54558</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40886</v>
+        <v>39936</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71697</v>
+        <v>70323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1112755882190108</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08339113133323076</v>
+        <v>0.0814532866300232</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.14623391587397</v>
+        <v>0.1434309302879901</v>
       </c>
     </row>
     <row r="17">
@@ -6083,19 +6083,19 @@
         <v>276239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>259696</v>
+        <v>259382</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>291649</v>
+        <v>290414</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7990215594878087</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7511690029891885</v>
+        <v>0.7502630296724367</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8435941476935456</v>
+        <v>0.8400204166514498</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>72</v>
@@ -6104,19 +6104,19 @@
         <v>82349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>70063</v>
+        <v>69553</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>94893</v>
+        <v>94240</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5696143511753723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4846320912569446</v>
+        <v>0.4811049848134719</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6563800782775085</v>
+        <v>0.65186242431997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -6125,19 +6125,19 @@
         <v>358588</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336846</v>
+        <v>336468</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>378366</v>
+        <v>377362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7313772335124482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6870313398416191</v>
+        <v>0.6862613889820511</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7717148580954493</v>
+        <v>0.7696681243422341</v>
       </c>
     </row>
     <row r="18">
@@ -6154,19 +6154,19 @@
         <v>30485</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21264</v>
+        <v>21109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45077</v>
+        <v>42678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08817653540660399</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06150652731109875</v>
+        <v>0.06105751204807459</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1303851556368728</v>
+        <v>0.1234454732102234</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -6175,19 +6175,19 @@
         <v>25849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17921</v>
+        <v>17202</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37952</v>
+        <v>35637</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1787964913543117</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1239641690999603</v>
+        <v>0.1189905960468007</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2625151412443065</v>
+        <v>0.2465049185125825</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>52</v>
@@ -6196,19 +6196,19 @@
         <v>56333</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>43420</v>
+        <v>43749</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73771</v>
+        <v>71844</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1148972556712045</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08855857881685343</v>
+        <v>0.08923150988469362</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.150463574666375</v>
+        <v>0.1465336328620646</v>
       </c>
     </row>
     <row r="19">
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4710</v>
+        <v>5255</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.002703111688548367</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0136243018601465</v>
+        <v>0.01519997312914979</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6246,19 +6246,19 @@
         <v>19878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12407</v>
+        <v>12462</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29250</v>
+        <v>29790</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1374994127593681</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08582324801274986</v>
+        <v>0.08619911277258024</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2023217926136751</v>
+        <v>0.2060575694839226</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>19</v>
@@ -6267,19 +6267,19 @@
         <v>20813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13006</v>
+        <v>12909</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32120</v>
+        <v>32157</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04244992259733646</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02652628761363768</v>
+        <v>0.0263295592148813</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06551295749686917</v>
+        <v>0.065586450661275</v>
       </c>
     </row>
     <row r="20">
@@ -6300,19 +6300,19 @@
         <v>17681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11020</v>
+        <v>10406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26588</v>
+        <v>27092</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0912954205992788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0569013784352787</v>
+        <v>0.05373239163552909</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1372850515164022</v>
+        <v>0.1398844311062415</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6321,19 +6321,19 @@
         <v>21401</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13170</v>
+        <v>13185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32539</v>
+        <v>31342</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1037830639574571</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06386608620596949</v>
+        <v>0.06393742761414117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1577927601064675</v>
+        <v>0.1519906005602185</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -6342,19 +6342,19 @@
         <v>39083</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28120</v>
+        <v>27880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>52154</v>
+        <v>52077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09773503434520893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07032123017187986</v>
+        <v>0.06972089450035886</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1304235642692773</v>
+        <v>0.1302303551972212</v>
       </c>
     </row>
     <row r="21">
@@ -6371,19 +6371,19 @@
         <v>167296</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>156951</v>
+        <v>156781</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>175678</v>
+        <v>176439</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.8638121334466471</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8103969718919503</v>
+        <v>0.8095188578509028</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.9070884762548682</v>
+        <v>0.9110197147080779</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>110</v>
@@ -6392,19 +6392,19 @@
         <v>125531</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>110955</v>
+        <v>111020</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>140384</v>
+        <v>140512</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6087510931010369</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5380644779745326</v>
+        <v>0.5383807110223667</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6807791079914733</v>
+        <v>0.681401035537926</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>288</v>
@@ -6413,19 +6413,19 @@
         <v>292827</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>274128</v>
+        <v>273206</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>311379</v>
+        <v>310967</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.7322825458095098</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6855216643512911</v>
+        <v>0.6832148917582801</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.778674277743141</v>
+        <v>0.7776447100777534</v>
       </c>
     </row>
     <row r="22">
@@ -6442,19 +6442,19 @@
         <v>8694</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3932</v>
+        <v>4061</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16563</v>
+        <v>15831</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04489244595407412</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02030290569376681</v>
+        <v>0.02096884524304672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08552309037400227</v>
+        <v>0.08174366594342207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>24</v>
@@ -6463,19 +6463,19 @@
         <v>26348</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16935</v>
+        <v>16907</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38249</v>
+        <v>37692</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1277733791318545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08212349122188475</v>
+        <v>0.08198665542189772</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1854865321039914</v>
+        <v>0.1827827000089643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>32</v>
@@ -6484,19 +6484,19 @@
         <v>35043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24609</v>
+        <v>23750</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47974</v>
+        <v>47667</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08763239145528917</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06154049552904874</v>
+        <v>0.05939264090641036</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1199693891823662</v>
+        <v>0.1192023551557854</v>
       </c>
     </row>
     <row r="23">
@@ -6526,19 +6526,19 @@
         <v>37506</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27070</v>
+        <v>26756</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50115</v>
+        <v>50875</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1818829211031853</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1312737552403997</v>
+        <v>0.1297496129347709</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2430256747278412</v>
+        <v>0.2467126030538984</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>33</v>
@@ -6547,19 +6547,19 @@
         <v>37506</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>26546</v>
+        <v>26904</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>50892</v>
+        <v>52841</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09379317820755403</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06638334864623344</v>
+        <v>0.06727936631650995</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1272662769457031</v>
+        <v>0.1321412383912047</v>
       </c>
     </row>
     <row r="24">
@@ -6580,7 +6580,7 @@
         <v>6441</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3215</v>
+        <v>3220</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>8443</v>
@@ -6589,7 +6589,7 @@
         <v>0.7628224631109876</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3807638617850353</v>
+        <v>0.3813557402146938</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>1</v>
@@ -6601,19 +6601,19 @@
         <v>5662</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1979</v>
+        <v>2041</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12492</v>
+        <v>13283</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02276981687782713</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.007959711561415155</v>
+        <v>0.008207579665033885</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05023348178551443</v>
+        <v>0.05341363845828511</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -6622,19 +6622,19 @@
         <v>12103</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6444</v>
+        <v>6416</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>20624</v>
+        <v>20931</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04707158042944903</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02506439687670036</v>
+        <v>0.02495223688015365</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08021345750883112</v>
+        <v>0.08140662686927426</v>
       </c>
     </row>
     <row r="25">
@@ -6664,19 +6664,19 @@
         <v>6693</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2645</v>
+        <v>2973</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13589</v>
+        <v>13751</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02691656010396568</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01063494604849678</v>
+        <v>0.01195666265229175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05464677731629716</v>
+        <v>0.05529757020730947</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -6685,19 +6685,19 @@
         <v>6693</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2890</v>
+        <v>2339</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14507</v>
+        <v>13888</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02603267720374359</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01124129728116571</v>
+        <v>0.009098536451474359</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05642352613186699</v>
+        <v>0.05401376982463878</v>
       </c>
     </row>
     <row r="26">
@@ -6717,7 +6717,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5228</v>
+        <v>5223</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2371775368890124</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6192361382149647</v>
+        <v>0.6186442597853062</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -6735,19 +6735,19 @@
         <v>39803</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29097</v>
+        <v>28518</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>51880</v>
+        <v>53572</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1600602964368295</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1170077221202212</v>
+        <v>0.1146817706985631</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2086284032342016</v>
+        <v>0.2154296233438862</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>39</v>
@@ -6756,19 +6756,19 @@
         <v>41805</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31553</v>
+        <v>30845</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>56881</v>
+        <v>56075</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1625926634957969</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1227206826558302</v>
+        <v>0.1199655750142329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2212275745280245</v>
+        <v>0.2180934103700874</v>
       </c>
     </row>
     <row r="27">
@@ -6798,19 +6798,19 @@
         <v>197483</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>184127</v>
+        <v>181736</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>209838</v>
+        <v>209937</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7941475738099545</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7404375860288099</v>
+        <v>0.7308242664711466</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8438295398561059</v>
+        <v>0.8442293757145064</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>161</v>
@@ -6819,19 +6819,19 @@
         <v>197483</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>181553</v>
+        <v>182592</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>210045</v>
+        <v>210240</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7680694472576668</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.7061149654882038</v>
+        <v>0.7101527692310341</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8169265459684526</v>
+        <v>0.8176860287965473</v>
       </c>
     </row>
     <row r="28">
@@ -6852,19 +6852,19 @@
         <v>88308</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>71750</v>
+        <v>72189</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>108145</v>
+        <v>107982</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09823167519864888</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07981332267253087</v>
+        <v>0.08030115683882323</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1202979249576207</v>
+        <v>0.1201161790308418</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>49</v>
@@ -6873,19 +6873,19 @@
         <v>53603</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>40618</v>
+        <v>39628</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70640</v>
+        <v>69112</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07297491383413154</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05529720861002865</v>
+        <v>0.05394872565144035</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09616769637642364</v>
+        <v>0.09408862650046312</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>129</v>
@@ -6894,19 +6894,19 @@
         <v>141911</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120620</v>
+        <v>119277</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>167275</v>
+        <v>166957</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08687446154337727</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07384061005315654</v>
+        <v>0.07301827547830084</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.102401327896519</v>
+        <v>0.1022067580356365</v>
       </c>
     </row>
     <row r="29">
@@ -6923,19 +6923,19 @@
         <v>750362</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>725942</v>
+        <v>724969</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>770292</v>
+        <v>770473</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8346850824388135</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8075214622146997</v>
+        <v>0.8064387424011955</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8568550349748119</v>
+        <v>0.8570560261902929</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>275</v>
@@ -6944,19 +6944,19 @@
         <v>318213</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>290526</v>
+        <v>289782</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>343495</v>
+        <v>347753</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.4332104057249989</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3955175674863315</v>
+        <v>0.3945045490424981</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4676284921535623</v>
+        <v>0.4734257825411461</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1039</v>
@@ -6965,19 +6965,19 @@
         <v>1068575</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1026558</v>
+        <v>1029937</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1107632</v>
+        <v>1108512</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6541538728029805</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6284322228331805</v>
+        <v>0.6305005603842141</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.678063131236476</v>
+        <v>0.6786020363387802</v>
       </c>
     </row>
     <row r="30">
@@ -6994,19 +6994,19 @@
         <v>59372</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45813</v>
+        <v>45241</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>76441</v>
+        <v>76204</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.06604369873686372</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0509609108448644</v>
+        <v>0.05032461015124764</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08503163657066216</v>
+        <v>0.08476700278524392</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>98</v>
@@ -7015,19 +7015,19 @@
         <v>107101</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>88842</v>
+        <v>86704</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>127643</v>
+        <v>129274</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1458058814779358</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1209481767004105</v>
+        <v>0.1180371025309034</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.173770746198743</v>
+        <v>0.1759920556954026</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>153</v>
@@ -7036,19 +7036,19 @@
         <v>166473</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>142077</v>
+        <v>141424</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>191675</v>
+        <v>191634</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1019103776798662</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08697559739336211</v>
+        <v>0.0865762566026357</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1173383601689982</v>
+        <v>0.1173132952784827</v>
       </c>
     </row>
     <row r="31">
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4694</v>
+        <v>5918</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.001039543625673974</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.005220963545092714</v>
+        <v>0.006582593334828463</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>219</v>
@@ -7086,19 +7086,19 @@
         <v>263268</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>236906</v>
+        <v>236647</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>288896</v>
+        <v>292191</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3584089203334618</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3225197271358057</v>
+        <v>0.3221672776480973</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.393298574866623</v>
+        <v>0.3977847437961801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>220</v>
@@ -7107,19 +7107,19 @@
         <v>264203</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>232527</v>
+        <v>234787</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>295785</v>
+        <v>295186</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1617379129274322</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1423471914405916</v>
+        <v>0.1437304098883247</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1810718063195679</v>
+        <v>0.180705324040585</v>
       </c>
     </row>
     <row r="32">
@@ -7395,19 +7395,19 @@
         <v>4478</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2022</v>
+        <v>1950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9199</v>
+        <v>9724</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06168689261823865</v>
+        <v>0.06168689261823867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02785474339257299</v>
+        <v>0.02686307648003722</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1267093970878477</v>
+        <v>0.1339472739343098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -7416,19 +7416,19 @@
         <v>4478</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1980</v>
+        <v>1657</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10202</v>
+        <v>9056</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02362772562397781</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01044566170536788</v>
+        <v>0.00874388061957981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05382529760721547</v>
+        <v>0.04777649628017546</v>
       </c>
     </row>
     <row r="5">
@@ -7445,19 +7445,19 @@
         <v>70982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>61665</v>
+        <v>60621</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80521</v>
+        <v>80332</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6069932827085014</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5273185941611557</v>
+        <v>0.518390814211127</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6885568999448396</v>
+        <v>0.6869445255253785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -7466,19 +7466,19 @@
         <v>48221</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40934</v>
+        <v>41577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54013</v>
+        <v>54299</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6642199336701398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5638447621972167</v>
+        <v>0.5726955531083671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7440005885311338</v>
+        <v>0.7479453316595657</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>179</v>
@@ -7487,19 +7487,19 @@
         <v>119203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108270</v>
+        <v>107882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131658</v>
+        <v>131177</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.628912616782738</v>
+        <v>0.6289126167827381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5712259533415562</v>
+        <v>0.569180452217605</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6946215161492673</v>
+        <v>0.6920855355484377</v>
       </c>
     </row>
     <row r="6">
@@ -7516,19 +7516,19 @@
         <v>34038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25254</v>
+        <v>25545</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42325</v>
+        <v>42802</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2910669170825427</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2159533784226298</v>
+        <v>0.2184395477754984</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3619384198017024</v>
+        <v>0.3660120622824315</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -7537,19 +7537,19 @@
         <v>15432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10861</v>
+        <v>10514</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21557</v>
+        <v>21525</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2125647885175409</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1496060088432494</v>
+        <v>0.1448187265164135</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2969386915547657</v>
+        <v>0.2964940022373806</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>69</v>
@@ -7558,19 +7558,19 @@
         <v>49469</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>39357</v>
+        <v>39697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59536</v>
+        <v>60280</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.26099850747548</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2076456545262214</v>
+        <v>0.2094404928243086</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3141090161686771</v>
+        <v>0.318036267396203</v>
       </c>
     </row>
     <row r="7">
@@ -7587,19 +7587,19 @@
         <v>11921</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6395</v>
+        <v>6483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18592</v>
+        <v>19124</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1019398002089558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05468264305440075</v>
+        <v>0.05543902492957228</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1589821983414252</v>
+        <v>0.1635367554518702</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -7608,19 +7608,19 @@
         <v>4467</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2245</v>
+        <v>2008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8817</v>
+        <v>8201</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06152838519408062</v>
+        <v>0.0615283851940806</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03091858170647881</v>
+        <v>0.02765966242019033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1214479800469802</v>
+        <v>0.112958218284306</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -7629,19 +7629,19 @@
         <v>16388</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10343</v>
+        <v>10061</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24661</v>
+        <v>24501</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08646115011780407</v>
+        <v>0.08646115011780409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05456975069560728</v>
+        <v>0.05308269956480884</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1301082171889785</v>
+        <v>0.1292657801600615</v>
       </c>
     </row>
     <row r="8">
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5749</v>
+        <v>5243</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01353239426279889</v>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04924289072711748</v>
+        <v>0.04491031551151754</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -7683,19 +7683,19 @@
         <v>6819</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3708</v>
+        <v>3657</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11198</v>
+        <v>10894</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09938812258624334</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05404921946110817</v>
+        <v>0.05329983789184495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1632202994829137</v>
+        <v>0.1587837829362224</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -7704,19 +7704,19 @@
         <v>8398</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4648</v>
+        <v>4665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13836</v>
+        <v>13659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04531159623106533</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02507588447788709</v>
+        <v>0.02517136821243285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07464802237995091</v>
+        <v>0.0736930701077852</v>
       </c>
     </row>
     <row r="9">
@@ -7733,19 +7733,19 @@
         <v>62423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52617</v>
+        <v>53396</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>72352</v>
+        <v>72330</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5347027843369855</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4507094425554223</v>
+        <v>0.4573785077837119</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6197528572821228</v>
+        <v>0.6195652913427201</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>60</v>
@@ -7754,19 +7754,19 @@
         <v>34598</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>28973</v>
+        <v>28749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>40991</v>
+        <v>41063</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5042957441410398</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4223046793345795</v>
+        <v>0.419041182500228</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5974910005219511</v>
+        <v>0.5985328700259628</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>140</v>
@@ -7775,19 +7775,19 @@
         <v>97021</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>85897</v>
+        <v>84934</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>108797</v>
+        <v>108323</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5234477231953019</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.463435960004168</v>
+        <v>0.4582402278768579</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5869870787429206</v>
+        <v>0.5844246515343063</v>
       </c>
     </row>
     <row r="10">
@@ -7804,19 +7804,19 @@
         <v>38407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30946</v>
+        <v>29704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47691</v>
+        <v>47479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3289885336976149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2650741542867344</v>
+        <v>0.2544389966037139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4085158423305876</v>
+        <v>0.4066955266237136</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -7825,19 +7825,19 @@
         <v>16457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11325</v>
+        <v>11342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22008</v>
+        <v>21918</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2398712544704698</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1650789052445845</v>
+        <v>0.1653277828431425</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3207927819930383</v>
+        <v>0.3194703297352162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -7846,19 +7846,19 @@
         <v>54864</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44787</v>
+        <v>44681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65560</v>
+        <v>66075</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.296002079902097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2416344319223646</v>
+        <v>0.2410622653506832</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3537127819865046</v>
+        <v>0.3564908498647124</v>
       </c>
     </row>
     <row r="11">
@@ -7875,19 +7875,19 @@
         <v>14333</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8607</v>
+        <v>8566</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21731</v>
+        <v>21755</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1227762877026007</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07372182989131722</v>
+        <v>0.07337322152569578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1861426953611247</v>
+        <v>0.1863459637174323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -7896,19 +7896,19 @@
         <v>10733</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6434</v>
+        <v>6571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16046</v>
+        <v>16003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1564448788022469</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09377586966413366</v>
+        <v>0.09578093068758255</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.233887481371407</v>
+        <v>0.2332572962492383</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -7917,19 +7917,19 @@
         <v>25066</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18302</v>
+        <v>17674</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>35268</v>
+        <v>35961</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1352386006715359</v>
+        <v>0.1352386006715358</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09874205593815219</v>
+        <v>0.09535320175431169</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1902804804235104</v>
+        <v>0.1940157370856527</v>
       </c>
     </row>
     <row r="12">
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4366</v>
+        <v>4087</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.008529612652017994</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03044619522418009</v>
+        <v>0.0285019715510744</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>25</v>
@@ -7971,19 +7971,19 @@
         <v>14465</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9633</v>
+        <v>9855</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20709</v>
+        <v>20333</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2551085780195166</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1698897652133193</v>
+        <v>0.1737939958640728</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3652130667134372</v>
+        <v>0.358585387396988</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>27</v>
@@ -7992,19 +7992,19 @@
         <v>15689</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>10062</v>
+        <v>10213</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>22043</v>
+        <v>23270</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07839938803280611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05028000387704592</v>
+        <v>0.05103712539184954</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1101566640775275</v>
+        <v>0.1162862057655393</v>
       </c>
     </row>
     <row r="13">
@@ -8021,19 +8021,19 @@
         <v>65098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53727</v>
+        <v>54319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>75629</v>
+        <v>75342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4539334849600271</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3746438657863554</v>
+        <v>0.378771433535181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5273662036735139</v>
+        <v>0.5253702189623244</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -8042,19 +8042,19 @@
         <v>24517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18417</v>
+        <v>18742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30151</v>
+        <v>30215</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4323766683652076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3247905082990607</v>
+        <v>0.3305229563119334</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5317291334973997</v>
+        <v>0.5328658723379072</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -8063,19 +8063,19 @@
         <v>89614</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78048</v>
+        <v>78265</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101462</v>
+        <v>101920</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4478252188670126</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3900247497099313</v>
+        <v>0.3911120383056628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5070319465137889</v>
+        <v>0.509318274451269</v>
       </c>
     </row>
     <row r="14">
@@ -8092,19 +8092,19 @@
         <v>46313</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36895</v>
+        <v>36849</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56760</v>
+        <v>57710</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3229448598485683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2572700501841945</v>
+        <v>0.2569549850376984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3957911621983699</v>
+        <v>0.4024148054281478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -8113,19 +8113,19 @@
         <v>12807</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8731</v>
+        <v>8352</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18373</v>
+        <v>17756</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2258526264778211</v>
+        <v>0.225852626477821</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1539712348921838</v>
+        <v>0.1472856449305197</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3240262997544086</v>
+        <v>0.3131422194739562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>84</v>
@@ -8134,19 +8134,19 @@
         <v>59119</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48116</v>
+        <v>48628</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70352</v>
+        <v>71029</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2954331354534129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2404467095785773</v>
+        <v>0.243006296131183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3515667301599475</v>
+        <v>0.3549513901571093</v>
       </c>
     </row>
     <row r="15">
@@ -8163,19 +8163,19 @@
         <v>30774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>22658</v>
+        <v>21921</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41141</v>
+        <v>40742</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2145920425393867</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1579979070102066</v>
+        <v>0.1528546428989093</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2868818435235602</v>
+        <v>0.2840979576848473</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -8184,19 +8184,19 @@
         <v>4914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2440</v>
+        <v>2221</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9640</v>
+        <v>8940</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.08666212713745479</v>
+        <v>0.08666212713745478</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04302804370824556</v>
+        <v>0.03916777531255357</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1700170839058958</v>
+        <v>0.1576716171290392</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>45</v>
@@ -8205,19 +8205,19 @@
         <v>35688</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27145</v>
+        <v>26752</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>45916</v>
+        <v>45377</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1783422576467684</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1356523199406319</v>
+        <v>0.1336888492960548</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2294528930682301</v>
+        <v>0.2267593205349209</v>
       </c>
     </row>
     <row r="16">
@@ -8238,19 +8238,19 @@
         <v>5484</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2014</v>
+        <v>2330</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11918</v>
+        <v>11787</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01705425886551296</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006262972543502622</v>
+        <v>0.007247088754941707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03706538119729363</v>
+        <v>0.0366575887370118</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -8259,19 +8259,19 @@
         <v>24853</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>17907</v>
+        <v>18421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32700</v>
+        <v>32844</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.180534855201955</v>
+        <v>0.1805348552019549</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1300838432872079</v>
+        <v>0.1338151228730542</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2375421949256213</v>
+        <v>0.2385825381912071</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -8280,19 +8280,19 @@
         <v>30336</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22191</v>
+        <v>22138</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>39874</v>
+        <v>40177</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06606261091538428</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04832506490126061</v>
+        <v>0.04820933910241819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08683320962174498</v>
+        <v>0.08749148460827302</v>
       </c>
     </row>
     <row r="17">
@@ -8309,19 +8309,19 @@
         <v>175798</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>159631</v>
+        <v>161136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>191215</v>
+        <v>192413</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5467305478346118</v>
+        <v>0.5467305478346119</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4964484881225615</v>
+        <v>0.5011299464651993</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5946741956763359</v>
+        <v>0.5984027571217614</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -8330,19 +8330,19 @@
         <v>59412</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50860</v>
+        <v>50438</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68094</v>
+        <v>68495</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.431581541394345</v>
+        <v>0.4315815413943447</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3694568415062887</v>
+        <v>0.366389641863427</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4946511991315213</v>
+        <v>0.4975598900424419</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>349</v>
@@ -8351,19 +8351,19 @@
         <v>235211</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215309</v>
+        <v>218139</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253060</v>
+        <v>253701</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5122110808624967</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4688713392973136</v>
+        <v>0.4750342068411521</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5510810751957743</v>
+        <v>0.5524768892320022</v>
       </c>
     </row>
     <row r="18">
@@ -8380,19 +8380,19 @@
         <v>90951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>77468</v>
+        <v>77343</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>106790</v>
+        <v>107033</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2828551675660621</v>
+        <v>0.2828551675660622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2409239737483094</v>
+        <v>0.2405350780894124</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3321164543564078</v>
+        <v>0.3328722460644704</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -8401,19 +8401,19 @@
         <v>36844</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29471</v>
+        <v>29006</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>45204</v>
+        <v>45324</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2676419362787261</v>
+        <v>0.267641936278726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2140813900635406</v>
+        <v>0.2107025292771076</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3283728151806627</v>
+        <v>0.3292415561219231</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>172</v>
@@ -8422,19 +8422,19 @@
         <v>127795</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>110969</v>
+        <v>111703</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>146263</v>
+        <v>144224</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2782945321667913</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2416542381910613</v>
+        <v>0.2432515259357559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.318511083863168</v>
+        <v>0.3140721909842921</v>
       </c>
     </row>
     <row r="19">
@@ -8451,19 +8451,19 @@
         <v>49312</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38114</v>
+        <v>37610</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61809</v>
+        <v>61827</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1533600257338129</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1185342780804291</v>
+        <v>0.1169665019296458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1922235769785554</v>
+        <v>0.1922801491957905</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -8472,19 +8472,19 @@
         <v>16553</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11757</v>
+        <v>11490</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23758</v>
+        <v>23341</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1202416671249741</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08540451252925831</v>
+        <v>0.08346542117231814</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1725866696634322</v>
+        <v>0.1695505963218603</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -8493,19 +8493,19 @@
         <v>65865</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>53311</v>
+        <v>54031</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79999</v>
+        <v>78870</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1434317760553277</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1160932793705924</v>
+        <v>0.1176616695164688</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.174212060538634</v>
+        <v>0.1717529952431852</v>
       </c>
     </row>
     <row r="20">
@@ -8526,19 +8526,19 @@
         <v>3354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>879</v>
+        <v>904</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9166</v>
+        <v>8662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02221961400235744</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005825042249574603</v>
+        <v>0.005991237315980207</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06071454005685715</v>
+        <v>0.05737957425726654</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -8547,19 +8547,19 @@
         <v>87505</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76791</v>
+        <v>78089</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>98661</v>
+        <v>98729</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3611074973949832</v>
+        <v>0.3611074973949831</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3168950740890316</v>
+        <v>0.32225022233255</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4071470775815657</v>
+        <v>0.407427149398061</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>180</v>
@@ -8568,19 +8568,19 @@
         <v>90859</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>78564</v>
+        <v>79499</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>103073</v>
+        <v>105907</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2310241949182994</v>
+        <v>0.2310241949182993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1997615597530716</v>
+        <v>0.2021391769714635</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2620806362536882</v>
+        <v>0.2692864644857645</v>
       </c>
     </row>
     <row r="21">
@@ -8597,19 +8597,19 @@
         <v>72249</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>61134</v>
+        <v>61067</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82974</v>
+        <v>83011</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4785818768663688</v>
+        <v>0.4785818768663685</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4049557900704225</v>
+        <v>0.4045107514628688</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5496227871783663</v>
+        <v>0.5498667961275688</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>137</v>
@@ -8618,19 +8618,19 @@
         <v>70784</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>61271</v>
+        <v>61208</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>81238</v>
+        <v>81549</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2921039863340852</v>
+        <v>0.2921039863340851</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2528499580250069</v>
+        <v>0.2525881765761149</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3352480679240221</v>
+        <v>0.3365313372221203</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>233</v>
@@ -8639,19 +8639,19 @@
         <v>143033</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>126961</v>
+        <v>128403</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>159428</v>
+        <v>158413</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3636841785689923</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3228194959779571</v>
+        <v>0.3264862208580029</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4053729473055065</v>
+        <v>0.4027920828913532</v>
       </c>
     </row>
     <row r="22">
@@ -8668,19 +8668,19 @@
         <v>52251</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42559</v>
+        <v>41899</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63646</v>
+        <v>63539</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3461111595218014</v>
+        <v>0.3461111595218013</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2819132186423398</v>
+        <v>0.2775390073486958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4215956024278442</v>
+        <v>0.4208845298880815</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>97</v>
@@ -8689,19 +8689,19 @@
         <v>61733</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>52129</v>
+        <v>50733</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72418</v>
+        <v>72022</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2547553909021874</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2151229262935337</v>
+        <v>0.2093627423447767</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2988505867529498</v>
+        <v>0.2972144915340976</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -8710,19 +8710,19 @@
         <v>113984</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>100206</v>
+        <v>99352</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>130484</v>
+        <v>129728</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2898226230598119</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2547901739354035</v>
+        <v>0.2526183933463823</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3317759658930273</v>
+        <v>0.3298561962960135</v>
       </c>
     </row>
     <row r="23">
@@ -8739,19 +8739,19 @@
         <v>23111</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>15490</v>
+        <v>16190</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31807</v>
+        <v>31538</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1530873496094726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1026036349001617</v>
+        <v>0.1072460860807842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2106938724724295</v>
+        <v>0.208911214187008</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>38</v>
@@ -8760,19 +8760,19 @@
         <v>22302</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16712</v>
+        <v>16034</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30348</v>
+        <v>30711</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.09203312536874428</v>
+        <v>0.09203312536874425</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06896643164127846</v>
+        <v>0.06616611381479473</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1252372809211449</v>
+        <v>0.1267364918828688</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>69</v>
@@ -8781,19 +8781,19 @@
         <v>45413</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>35669</v>
+        <v>35466</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>56936</v>
+        <v>56318</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1154690034528964</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09069316824852187</v>
+        <v>0.09017764522944124</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1447683242458701</v>
+        <v>0.1431980201485114</v>
       </c>
     </row>
     <row r="24">
@@ -8827,19 +8827,19 @@
         <v>171998</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>162359</v>
+        <v>161397</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>180850</v>
+        <v>179989</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.8136373508503929</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7680401229019047</v>
+        <v>0.7634868971404429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8555132163835727</v>
+        <v>0.8514386417690142</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>310</v>
@@ -8848,19 +8848,19 @@
         <v>171998</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>159818</v>
+        <v>161985</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>181200</v>
+        <v>182038</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.7753946193155329</v>
+        <v>0.7753946193155331</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7204851130004987</v>
+        <v>0.730253473360154</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8168802893666637</v>
+        <v>0.8206562571302161</v>
       </c>
     </row>
     <row r="25">
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2955</v>
+        <v>2540</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04866850151654641</v>
@@ -8889,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2834667114982942</v>
+        <v>0.2436016401786555</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8898,19 +8898,19 @@
         <v>11833</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7283</v>
+        <v>6934</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>19684</v>
+        <v>18811</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05597551764879889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03445162852955445</v>
+        <v>0.03280310331434626</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09311752156611004</v>
+        <v>0.08898361758014474</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>18</v>
@@ -8919,19 +8919,19 @@
         <v>12340</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6860</v>
+        <v>7311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>19843</v>
+        <v>19722</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0556320719404934</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03092621742239101</v>
+        <v>0.0329603855063666</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08945468371005519</v>
+        <v>0.08891072489360087</v>
       </c>
     </row>
     <row r="26">
@@ -8948,19 +8948,19 @@
         <v>6495</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2875</v>
+        <v>3201</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9038</v>
+        <v>9203</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6229469805332217</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2757181493757762</v>
+        <v>0.3070338524706953</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8668757820330474</v>
+        <v>0.8827430329366807</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>37</v>
@@ -8969,19 +8969,19 @@
         <v>22774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16350</v>
+        <v>16426</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31564</v>
+        <v>30781</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1077321133086917</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07734522475007041</v>
+        <v>0.07770118171658039</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1493143118802834</v>
+        <v>0.1456096630337026</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>44</v>
@@ -8990,19 +8990,19 @@
         <v>29269</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22082</v>
+        <v>21709</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38907</v>
+        <v>38866</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1319483367028647</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09954985861364138</v>
+        <v>0.09786843596234686</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1754009814180107</v>
+        <v>0.1752158951503904</v>
       </c>
     </row>
     <row r="27">
@@ -9019,19 +9019,19 @@
         <v>3424</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>908</v>
+        <v>806</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7095</v>
+        <v>6889</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3283845179502318</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0871182911076369</v>
+        <v>0.07727088334500302</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6805128935070748</v>
+        <v>0.6607440509843047</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>8</v>
@@ -9040,19 +9040,19 @@
         <v>4789</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2346</v>
+        <v>2365</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8986</v>
+        <v>9159</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02265501819211635</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01109848895748565</v>
+        <v>0.01118969538576331</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04250845213810782</v>
+        <v>0.04332759906655326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -9061,19 +9061,19 @@
         <v>8213</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4437</v>
+        <v>4581</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14272</v>
+        <v>14142</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.03702497204110886</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02000479745147228</v>
+        <v>0.02065196459390297</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.06434035568523737</v>
+        <v>0.06375560405486493</v>
       </c>
     </row>
     <row r="28">
@@ -9094,19 +9094,19 @@
         <v>11641</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6105</v>
+        <v>6615</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18975</v>
+        <v>20121</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0135357587765846</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007098241532352095</v>
+        <v>0.007691106612075048</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02206305849653606</v>
+        <v>0.02339529964657912</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>573</v>
@@ -9115,19 +9115,19 @@
         <v>310118</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>289041</v>
+        <v>289405</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>330152</v>
+        <v>332403</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.3929094340260348</v>
+        <v>0.3929094340260347</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3662057780795461</v>
+        <v>0.3666673361337699</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4182923805017683</v>
+        <v>0.4211433915651455</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>587</v>
@@ -9136,19 +9136,19 @@
         <v>321759</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>296858</v>
+        <v>297112</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>347250</v>
+        <v>348600</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1950866760937739</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.179988977176376</v>
+        <v>0.1801426534238337</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2105418327121727</v>
+        <v>0.2113606013215624</v>
       </c>
     </row>
     <row r="29">
@@ -9165,19 +9165,19 @@
         <v>447057</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>421034</v>
+        <v>420258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>473493</v>
+        <v>472882</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.519817824214052</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.489558800128693</v>
+        <v>0.4886562633016696</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5505557256239486</v>
+        <v>0.5498453937573088</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>453</v>
@@ -9186,19 +9186,19 @@
         <v>249365</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>228701</v>
+        <v>230416</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>268329</v>
+        <v>269602</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3159369839756029</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2897564966018601</v>
+        <v>0.2919300968975914</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3399640560828527</v>
+        <v>0.3415764733065106</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1051</v>
@@ -9207,19 +9207,19 @@
         <v>696422</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>664727</v>
+        <v>660484</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>730007</v>
+        <v>729887</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.422249764057133</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.4030323081692288</v>
+        <v>0.4004598873392587</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4426125823735146</v>
+        <v>0.4425396164794874</v>
       </c>
     </row>
     <row r="30">
@@ -9236,19 +9236,19 @@
         <v>268454</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>243596</v>
+        <v>243608</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>293062</v>
+        <v>292477</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3121454540732994</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.283242583855099</v>
+        <v>0.2832567355548337</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3407590415147785</v>
+        <v>0.3400785869379191</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>265</v>
@@ -9257,19 +9257,19 @@
         <v>166046</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>148362</v>
+        <v>149482</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>183273</v>
+        <v>187502</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2103749240429208</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1879696324973422</v>
+        <v>0.1893885433920571</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2322008525326832</v>
+        <v>0.237559131120913</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>606</v>
@@ -9278,19 +9278,19 @@
         <v>434500</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>405003</v>
+        <v>403147</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>464776</v>
+        <v>465300</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2634427256335285</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2455581971863282</v>
+        <v>0.2444332183973768</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2817994834651372</v>
+        <v>0.2821170236526747</v>
       </c>
     </row>
     <row r="31">
@@ -9307,19 +9307,19 @@
         <v>132875</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>114769</v>
+        <v>114742</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>152481</v>
+        <v>152437</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1545009629360641</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.133448549144555</v>
+        <v>0.1334168622004309</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1772983781766589</v>
+        <v>0.1772465836983916</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>109</v>
@@ -9328,19 +9328,19 @@
         <v>63757</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>52707</v>
+        <v>52762</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75930</v>
+        <v>75326</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08077865795544158</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06677833266472342</v>
+        <v>0.06684770173838465</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09620029604938186</v>
+        <v>0.09543547923805515</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>272</v>
@@ -9349,19 +9349,19 @@
         <v>196633</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>173195</v>
+        <v>176267</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>219743</v>
+        <v>222640</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1192208342155645</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1050104026708756</v>
+        <v>0.1068731363507067</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1332328814026558</v>
+        <v>0.134989742495783</v>
       </c>
     </row>
     <row r="32">
